--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="tài liệu joomla" sheetId="1" r:id="rId2"/>
-    <sheet name="tài liệu joomla (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="tài liệu css3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="tài liệu css" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -30,37 +30,61 @@
     <t>Ref</t>
   </si>
   <si>
-    <t>tự học joomla</t>
-  </si>
-  <si>
-    <t>http://quochoc.vn/course/preview/tu-hoc-thiet-ke-web-voi-joomla</t>
-  </si>
-  <si>
     <t>Similar</t>
   </si>
   <si>
-    <t>Tự học thiết Kế Web Với Joomla</t>
-  </si>
-  <si>
-    <t>&lt;li class="active"&gt;Tự học thiết Kế Web Với Joomla&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt; Tự học thiết Kế Web Với Joomla &lt;/h1&gt;</t>
-  </si>
-  <si>
     <t>h1</t>
   </si>
   <si>
-    <t>&lt;td&gt; &lt;p&gt;&lt;strong&gt;Nắm vững kiến thức về Joomla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Tự xây dựng các website chuyên nghiệp bằng Joomla&lt;/strong&gt;&lt;/p&gt; &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>td</t>
-  </si>
-  <si>
-    <t>Nắm vững kiến thức về Joomla Tự xây dựng các website chuyên nghiệp bằng Joomla</t>
+    <t>tài liệu css</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;&lt;a href="http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html-css-chi-tiet" title="Tổng Hợp Tài Liệu HTML – CSS Chi Tiết"&gt;Tổng Hợp Tài Liệu HTML – CSS Chi Tiết&lt;/a&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html-css-chi-tiet</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://giaotrinhcntt.com/tag/tai-lieu-html-css" rel="tag"&gt;tài liệu html-css&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Tài liệu html-css</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://giaotrinhcntt.com"&gt;giaotrinhcntt.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>giaotrinhcntt.com</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;&lt;a href="http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html5-css3-tieng-viet" title="Tổng Hợp Tài Liệu HTML5 – CSS3 Tiếng Việt"&gt;Tổng Hợp Tài Liệu HTML5 – CSS3 Tiếng Việt&lt;/a&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tổng Hợp Tài Liệu HTML5 – CSS3 Tiếng Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng Hợp Tài Liệu HTML – CSS Chi Tiết </t>
+  </si>
+  <si>
+    <t>http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html5-css3-tieng-viet</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;&lt;a href="http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html-css-chi-tiet" target="_blank"&gt;Tổng Hợp Tài Liệu HTML – CSS Chi Tiết&lt;/a&gt;&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>Tổng Hợp Tài Liệu HTML – CSS Chi Tiết</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://giaotrinhcntt.com/tag/html5-css3" rel="tag"&gt;html5-css3&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>html5-css3</t>
   </si>
 </sst>
 </file>
@@ -178,11 +202,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,54 +513,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,60 +557,60 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -609,7 +619,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -618,7 +628,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -627,7 +637,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -636,7 +646,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -645,7 +655,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -654,7 +664,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -663,7 +673,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -672,7 +682,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -681,7 +691,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -690,7 +700,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -699,7 +709,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -708,7 +718,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -717,7 +727,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -738,42 +748,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -784,60 +808,60 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -846,7 +870,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -855,7 +879,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -864,7 +888,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -873,7 +897,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -882,7 +906,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -891,7 +915,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -900,7 +924,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -909,7 +933,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -918,7 +942,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>13</v>
       </c>
@@ -927,7 +951,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -936,7 +960,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -945,7 +969,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -954,7 +978,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>17</v>
       </c>

--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tài liệu css3" sheetId="4" r:id="rId1"/>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="tài liệu css" sheetId="3" r:id="rId3"/>
+    <sheet name="tài liệu css" sheetId="3" r:id="rId1"/>
+    <sheet name="tài liệu css3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -515,257 +515,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:F4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -997,4 +746,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="tài liệu css" sheetId="3" r:id="rId1"/>
-    <sheet name="tài liệu css3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId1"/>
+    <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId2"/>
+    <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId3"/>
+    <sheet name="tài liệu css" sheetId="3" r:id="rId4"/>
+    <sheet name="tài liệu css3" sheetId="4" r:id="rId5"/>
+    <sheet name="tổng hợp tài liệu css3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -85,6 +89,105 @@
   </si>
   <si>
     <t>html5-css3</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="name post-title entry-title"&gt;&lt;span itemprop="name"&gt;Tài liệu Tiếng Việt HTML5- CSS3 (Slides)&lt;/span&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tài liệu Tiếng Việt HTML5- CSS3 (Slides)</t>
+  </si>
+  <si>
+    <t>http://blog.myclass.vn/tai-lieu-tieng-viet-html5-css3-slides/</t>
+  </si>
+  <si>
+    <t>&lt;span class="current"&gt;Tài liệu Tiếng Việt HTML5- CSS3 (Slides)&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://blog.myclass.vn/tag/html-5-css-tieng-viet/" rel="tag"&gt;HTML 5 - css tiếng việt&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HTML 5 - css tiếng việt</t>
+  </si>
+  <si>
+    <t>tài liệu tiếng việt css3</t>
+  </si>
+  <si>
+    <t>tổng hợp tài liệu css3</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Tag: tài liệu html5-css3&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tag: tài liệu html5-css3</t>
+  </si>
+  <si>
+    <t>http://giaotrinhcntt.com/tag/tai-lieu-html5-css3</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a href="http://giaotrinhcntt.com/tai-lieu/tai-lieu-hoc-html5-danh-cho-nguoi-moi-bat-dau" title="Tài Liệu Học HTML5 Dành Cho Người Mới Bắt Đầu"&gt;Tài Liệu Học HTML5 Dành Cho Người Mới Bắt Đầu&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Tài Liệu Học HTML5 Dành Cho Người Mới Bắt Đầu</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a href="http://giaotrinhcntt.com/tai-lieu/tong-hop-tai-lieu-html5-css3-tieng-viet" title="Tổng Hợp Tài Liệu HTML5 – CSS3 Tiếng Việt"&gt;Tổng Hợp Tài Liệu HTML5 – CSS3 Tiếng Việt&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>giáo trình css căn bản</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="h2-size entry-title"&gt;Tài liệu học CSS – Giáo trình HTML, CSS căn bản đến nâng cao&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Giáo trình HTML, CSS căn bản đến nâng cao</t>
+  </si>
+  <si>
+    <t>http://www.webtopviet.com/ebook/tai-lieu-hoc-css/</t>
+  </si>
+  <si>
+    <t>&lt;a rel="v:url" property="v:title" href="http://www.webtopviet.com/ebook/"&gt;Ebook - Tài liệu - Giáo trình&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Ebook - Tài liệu - Giáo trình</t>
+  </si>
+  <si>
+    <t>&lt;a href="#"&gt;Tài liệu CSS nâng cao tiếng việt&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Tài liệu CSS nâng cao tiếng việt</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="h2_post"&gt;Bài 6. Html css - Các thuộc tính cơ bản trong css&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Bài 6. Html css - Các thuộc tính cơ bản trong css</t>
+  </si>
+  <si>
+    <t>http://phpandmysql.net/html-css/bai-6-html-css-cac-thuoc-tinh-co-ban-trong-css-66.html</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://phpandmysql.net/html-css-1.html" title="Html Css"&gt;Html Css&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Html Css</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="http://phpandmysql.net/khoa-hoc/khoa-hoc-html-css/18.html" title="Khóa học html css"&gt;Khóa học html css&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Khóa học html css</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>những thuộc tính cơ bản của css</t>
   </si>
 </sst>
 </file>
@@ -515,6 +618,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -748,11 +1562,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -985,7 +1799,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -7,20 +7,22 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId1"/>
-    <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId2"/>
-    <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId3"/>
-    <sheet name="tài liệu css" sheetId="3" r:id="rId4"/>
-    <sheet name="tài liệu css3" sheetId="4" r:id="rId5"/>
-    <sheet name="tổng hợp tài liệu css3" sheetId="6" r:id="rId6"/>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="thuộc tính position trong css" sheetId="10" r:id="rId1"/>
+    <sheet name="hướng dẫn tự học css" sheetId="9" r:id="rId2"/>
+    <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId3"/>
+    <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId4"/>
+    <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId5"/>
+    <sheet name="tài liệu css" sheetId="3" r:id="rId6"/>
+    <sheet name="tài liệu css3" sheetId="4" r:id="rId7"/>
+    <sheet name="tổng hợp tài liệu css3" sheetId="6" r:id="rId8"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -188,6 +190,57 @@
   </si>
   <si>
     <t>những thuộc tính cơ bản của css</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="archive-title"&gt;Tag: 16 bài cơ bản CSS                    &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag: 16 bài cơ bản CSS  </t>
+  </si>
+  <si>
+    <t>http://thietke.website/tag/16-bai-co-ban-css/</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://thietke.website/tag/css-co-ban/" class="tag-link-59 tag-link-position-12" title="17 chủ đề" style="font-size: 21.176470588235pt;"&gt;CSS Cơ bản&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CSS Cơ bản</t>
+  </si>
+  <si>
+    <t>&lt;li id="menu-item-2159" class="menu-item menu-item-type-custom menu-item-object-custom menu-item-2159"&gt;&lt;a href="http://thietke.website/tag/thu-thuat-css/"&gt;Thủ thuật CSS&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Thủ thuật CSS</t>
+  </si>
+  <si>
+    <t>hướng dẫn tự học css</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="bHead"&gt;Thuộc tính position&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Thuộc tính position</t>
+  </si>
+  <si>
+    <t>&lt;li class="last"&gt;Thuộc tính position&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="/tutorial/"&gt;Hướng dẫn học&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn học</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="/reference/cssSection/"&gt;Tham khảo CSS&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Tham khảo CSS</t>
+  </si>
+  <si>
+    <t>http://hocwebchuan.com/reference/cssSection/pr_position.php</t>
+  </si>
+  <si>
+    <t>thuộc tính position trong css</t>
   </si>
 </sst>
 </file>
@@ -618,7 +671,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +1384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1088,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1325,7 +1858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1562,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1799,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -2036,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -7,22 +7,24 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="thuộc tính position trong css" sheetId="10" r:id="rId1"/>
-    <sheet name="hướng dẫn tự học css" sheetId="9" r:id="rId2"/>
-    <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId3"/>
-    <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId4"/>
-    <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId5"/>
-    <sheet name="tài liệu css" sheetId="3" r:id="rId6"/>
-    <sheet name="tài liệu css3" sheetId="4" r:id="rId7"/>
-    <sheet name="tổng hợp tài liệu css3" sheetId="6" r:id="rId8"/>
-    <sheet name="Sttasheet1" sheetId="2" r:id="rId9"/>
+    <sheet name="học css online" sheetId="11" r:id="rId1"/>
+    <sheet name="thuộc tính position trong css" sheetId="10" r:id="rId2"/>
+    <sheet name="hướng dẫn tự học css" sheetId="9" r:id="rId3"/>
+    <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId4"/>
+    <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId5"/>
+    <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId6"/>
+    <sheet name="các cú pháp trong css" sheetId="12" r:id="rId7"/>
+    <sheet name="tài liệu css" sheetId="3" r:id="rId8"/>
+    <sheet name="tài liệu css3" sheetId="4" r:id="rId9"/>
+    <sheet name="tổng hợp tài liệu css3" sheetId="6" r:id="rId10"/>
+    <sheet name="Sttasheet1" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -241,6 +243,54 @@
   </si>
   <si>
     <t>thuộc tính position trong css</t>
+  </si>
+  <si>
+    <t>học css online</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="font-size:13px"&gt;Học HTML - CSS - PHP MySQL Online&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Học HTML - CSS - PHP MySQL Online</t>
+  </si>
+  <si>
+    <t>http://2school.vn/hoc-css-truc-tuyen.html</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="http://2school.vn/hoc-css-truc-tuyen.html" title="học css trực tuyến"&gt;HỌC CSS&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>HỌC CSS</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2school.vn/hoc-css/1/Bai-1--Tong-quan-ve-ngon-ngu-css.html" title="Tổng quan về ngôn ngữ CSS"&gt;&lt;i class="fa fa-code"&gt;&lt;/i&gt; Bài 1: Tổng quan về ngôn ngữ css&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bài 1: Tổng quan về ngôn ngữ css</t>
+  </si>
+  <si>
+    <t>&lt;h1 id="main_title" class="post-tile entry-title" itemprop="headline"&gt;Bài 02: Cú pháp CSS - các cách viết CSS&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Bài 02: Cú pháp CSS - các cách viết CSS</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;CSS căn bản&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>CSS căn bản</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://freetuts.net/khoa-hoc/khoa-hoc-html-css-can-ban-cho-nguoi-moi-bat-dau-3.html" title="Khóa học HTML - CSS căn bản cho người mới bắt đầu (miễn phí)"&gt;Khóa học HTML - CSS căn bản cho người mới bắt đầu (miễn phí)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Khóa học HTML - CSS căn bản cho người mới bắt đầu (miễn phí)</t>
+  </si>
+  <si>
+    <t>https://freetuts.net/cu-phap-css-cac-cach-viet-css-328.html</t>
+  </si>
+  <si>
+    <t>các cú pháp trong css</t>
   </si>
 </sst>
 </file>
@@ -671,7 +721,495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1147,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1384,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1621,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -1858,7 +2396,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -2095,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
@@ -2330,255 +3105,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:F4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/maiduchung.css/structure_page_tai_lieu_css.xlsx
+++ b/maiduchung.css/structure_page_tai_lieu_css.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="học css online" sheetId="11" r:id="rId1"/>
+    <sheet name="hướng dẫn tự học css" sheetId="9" r:id="rId1"/>
     <sheet name="thuộc tính position trong css" sheetId="10" r:id="rId2"/>
-    <sheet name="hướng dẫn tự học css" sheetId="9" r:id="rId3"/>
+    <sheet name="học css online" sheetId="11" r:id="rId3"/>
     <sheet name="những thuộc tính cơ bản của css" sheetId="8" r:id="rId4"/>
     <sheet name="giáo trình css căn bản" sheetId="7" r:id="rId5"/>
     <sheet name="tài liệu tiếng việt css3" sheetId="5" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -266,9 +266,6 @@
     <t>&lt;a href="http://2school.vn/hoc-css/1/Bai-1--Tong-quan-ve-ngon-ngu-css.html" title="Tổng quan về ngôn ngữ CSS"&gt;&lt;i class="fa fa-code"&gt;&lt;/i&gt; Bài 1: Tổng quan về ngôn ngữ css&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Bài 1: Tổng quan về ngôn ngữ css</t>
-  </si>
-  <si>
     <t>&lt;h1 id="main_title" class="post-tile entry-title" itemprop="headline"&gt;Bài 02: Cú pháp CSS - các cách viết CSS&lt;/h1&gt;</t>
   </si>
   <si>
@@ -291,6 +288,84 @@
   </si>
   <si>
     <t>các cú pháp trong css</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2school.vn/hoc-css/10/Bai-10--Cach-su-dung-class-trong-css.html" title="Cách sử dụng class trong CSS"&gt;&lt;i class="fa fa-code"&gt;&lt;/i&gt; Bài 10. Cách sử dụng class trong css&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Tổng quan về ngôn ngữ css</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cách sử dụng class trong css</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://thietke.website/tag/css-co-ban/"&gt;Học CSS cơ bản&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Học CSS cơ bản</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="http://phpandmysql.net/" title="Khóa học thiết kế website" style="border:none"&gt;Khóa học thiết kế website&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Khóa học thiết kế website</t>
+  </si>
+  <si>
+    <t>&lt;li class="current"&gt;Tài liệu học CSS –…&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài liệu học CSS </t>
+  </si>
+  <si>
+    <t>&lt;a href="http://blog.myclass.vn/tag/lap-trinh-html5-css3/" rel="tag"&gt;lap trinh html5-css3&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>lap trinh html5-css3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>&lt;li class="cate-more"&gt;   &lt;a href="https://freetuts.net/hoc-css/css-responsive-web-design" title="CSS Responsive Web Design"&gt;  &lt;iclass="momizaticonstar"style="color:#ffa507"&gt;&lt;/i&gt;  CSS Responsive Web Design&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSS Responsive Web Design</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://giaotrinhcntt.com/danh-muc/thiet-ke-web" rel="tag"&gt;Thiết kế web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Thiết kế web</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://giaotrinhcntt.com/tag/tai-lieu-thiet-ke-web" rel="tag"&gt;tài liệu thiết kế web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>tài liệu thiết kế web</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://thietke.website/tag/16-bai-co-ban-css/" class="tag-link-87 tag-link-position-3" title="17 chủ đề" style="font-size: 21.176470588235pt;"&gt;16 bài cơ bản CSS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>16 bài cơ bản CSS</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="/chuyende/chuyen-de-html5css3/"&gt;Chuyên đề HTML5/CSS3&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Chuyên đề HTML5/CSS3</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a href="http://2school.vn/hoc-css/6/Bai-6--Cac-thuoc-tinh-css-thuong-dung-trong-van-ban.html" title="Các thuộc tính CSS thường dùng trong văn bản"&gt;&lt;i class="fa fa-code"&gt;&lt;/i&gt; Bài 6. Các thuộc tính css thường dùng trong văn bản&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Các thuộc tính css thường dùng trong văn</t>
   </si>
 </sst>
 </file>
@@ -721,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -738,7 +813,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -777,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,28 +866,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -820,18 +895,30 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1209,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1323,9 +1410,15 @@
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1562,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1508,13 +1601,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,47 +1615,59 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1788,9 +1893,15 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2025,9 +2136,15 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2262,9 +2379,15 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2540,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2456,13 +2579,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,10 +2596,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -2488,20 +2611,24 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,7 +2636,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -2518,7 +2647,9 @@
         <v>6</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
@@ -2527,7 +2658,9 @@
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -2637,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2736,18 +2869,30 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
